--- a/3.4 Production Planning/production_time_estimates.xlsx
+++ b/3.4 Production Planning/production_time_estimates.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ad1c0a53281c2ab/Documents/University/Studies/Sem 5/Group Project/Group-Project_WS2526/3.4 Production Planning/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_BE0A3DD497D9AE3F81351B7BF86C6E4760B43A61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A80A72D5-68D2-48F0-AAFC-74EB7EE449F8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -109,8 +115,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,13 +179,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -217,7 +231,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -251,6 +265,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -285,9 +300,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -460,14 +476,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -519,7 +547,7 @@
         <v>18300</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -545,7 +573,7 @@
         <v>11250</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -571,7 +599,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -597,7 +625,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -623,7 +651,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -649,7 +677,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -675,7 +703,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -701,7 +729,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -727,7 +755,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -753,7 +781,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -779,7 +807,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -805,7 +833,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
